--- a/data/cache/indices.xlsx
+++ b/data/cache/indices.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tech\Development\projects\JoSaPol\JoSaPol Gaming\ProgrammingGraphics\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tech\Development\projects\JoSaPol\JoSaPol Gaming\ProgrammingGraphics\data\cache\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B01E39-7D6F-48BD-9400-5BF7AA9B9A35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0137499-593F-47B2-BA2B-C142BD2D381F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2DE40E81-82FB-4F3F-BCC0-C522FB794419}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2DE40E81-82FB-4F3F-BCC0-C522FB794419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="234">
   <si>
     <t>a</t>
   </si>
@@ -625,6 +625,117 @@
   </si>
   <si>
     <t>Wind Speed</t>
+  </si>
+  <si>
+    <t>LAP_BEACON</t>
+  </si>
+  <si>
+    <t>G_LAT</t>
+  </si>
+  <si>
+    <t>ROTY</t>
+  </si>
+  <si>
+    <t>STEERANGLE</t>
+  </si>
+  <si>
+    <t>SPEED</t>
+  </si>
+  <si>
+    <t>THROTTLE</t>
+  </si>
+  <si>
+    <t>BRAKE</t>
+  </si>
+  <si>
+    <t>GEAR</t>
+  </si>
+  <si>
+    <t>G_LON</t>
+  </si>
+  <si>
+    <t>CLUTCH</t>
+  </si>
+  <si>
+    <t>RPMS</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>SUS_TRAVEL_LF</t>
+  </si>
+  <si>
+    <t>SUS_TRAVEL_RF</t>
+  </si>
+  <si>
+    <t>SUS_TRAVEL_LR</t>
+  </si>
+  <si>
+    <t>SUS_TRAVEL_RR</t>
+  </si>
+  <si>
+    <t>BRAKE_TEMP_LF</t>
+  </si>
+  <si>
+    <t>BRAKE_TEMP_RF</t>
+  </si>
+  <si>
+    <t>BRAKE_TEMP_LR</t>
+  </si>
+  <si>
+    <t>BRAKE_TEMP_RR</t>
+  </si>
+  <si>
+    <t>TYRE_PRESS_LF</t>
+  </si>
+  <si>
+    <t>TYRE_PRESS_RF</t>
+  </si>
+  <si>
+    <t>TYRE_PRESS_LR</t>
+  </si>
+  <si>
+    <t>TYRE_PRESS_RR</t>
+  </si>
+  <si>
+    <t>TYRE_TAIR_LF</t>
+  </si>
+  <si>
+    <t>TYRE_TAIR_RF</t>
+  </si>
+  <si>
+    <t>TYRE_TAIR_LR</t>
+  </si>
+  <si>
+    <t>TYRE_TAIR_RR</t>
+  </si>
+  <si>
+    <t>WHEEL_SPEED_LF</t>
+  </si>
+  <si>
+    <t>WHEEL_SPEED_RF</t>
+  </si>
+  <si>
+    <t>WHEEL_SPEED_LR</t>
+  </si>
+  <si>
+    <t>WHEEL_SPEED_RR</t>
+  </si>
+  <si>
+    <t>BUMPSTOPUP_RIDE_LF</t>
+  </si>
+  <si>
+    <t>BUMPSTOPUP_RIDE_RF</t>
+  </si>
+  <si>
+    <t>BUMPSTOPUP_RIDE_LR</t>
+  </si>
+  <si>
+    <t>BUMPSTOPUP_RIDE_RR</t>
   </si>
 </sst>
 </file>
@@ -976,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F053FFCF-2360-4602-9BC6-631DFE8888E4}">
-  <dimension ref="A1:B171"/>
+  <dimension ref="A1:C171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,320 +1099,434 @@
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>73</v>
       </c>
